--- a/input退貨.xlsx
+++ b/input退貨.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hn17219120-my.sharepoint.com/personal/admin_hn17219120_onmicrosoft_com/Documents/oneraShare/DATABASE_TRIAL/python files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_229C947375FEF7A5FF06B3DDEF86A75DAF486D20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE9523C9-9290-4ECB-8CE4-780C07D5089C}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_6DCF97CF596C225E647A84F6482FDEFB05ECC58F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CB673D5-55A5-4545-A015-039086ED8966}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="720" windowWidth="20025" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>型號</t>
   </si>
@@ -56,22 +56,57 @@
     <t>new_refId</t>
   </si>
   <si>
-    <t>GA-1000-1ADR</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP1010083654782</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>H82375161</t>
+  </si>
+  <si>
+    <t>P25943-R01</t>
+  </si>
+  <si>
+    <t>28/9/2023 得物</t>
+  </si>
+  <si>
+    <t>H70545540</t>
+  </si>
+  <si>
+    <t>085/2023</t>
+  </si>
+  <si>
+    <t>C032.807.11.041.00</t>
+  </si>
+  <si>
+    <t>20230727001</t>
+  </si>
+  <si>
+    <t>H69439931</t>
+  </si>
+  <si>
+    <t>H70665533</t>
+  </si>
+  <si>
+    <t>H32505511</t>
+  </si>
+  <si>
+    <t>SI2308032</t>
+  </si>
+  <si>
+    <t>C032.607.11.041.00</t>
+  </si>
+  <si>
+    <t>20230918001</t>
+  </si>
+  <si>
+    <t>H24251391</t>
+  </si>
+  <si>
+    <t>P25943-R01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,26 +152,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -166,7 +188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -183,12 +205,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -527,10 +543,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -563,62 +579,198 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5">
-        <v>5</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>156</v>
+      </c>
+      <c r="F2">
+        <v>1371</v>
+      </c>
+      <c r="G2">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>157</v>
+      </c>
+      <c r="F3">
+        <v>1362</v>
+      </c>
+      <c r="G3">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>158</v>
+      </c>
+      <c r="F4">
+        <v>1340</v>
+      </c>
+      <c r="G4">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>159</v>
+      </c>
+      <c r="F5">
+        <v>1360</v>
+      </c>
+      <c r="G5">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>160</v>
+      </c>
+      <c r="F6">
+        <v>1365</v>
+      </c>
+      <c r="G6">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>161</v>
+      </c>
+      <c r="F7">
+        <v>1351</v>
+      </c>
+      <c r="G7">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>162</v>
+      </c>
+      <c r="F8">
+        <v>1337</v>
+      </c>
+      <c r="G8">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12" s="5"/>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>163</v>
+      </c>
+      <c r="F9">
+        <v>1350</v>
+      </c>
+      <c r="G9">
+        <v>1179</v>
+      </c>
     </row>
   </sheetData>
-  <dataConsolidate>
-    <dataRefs count="1">
-      <dataRef ref="D10:E31" sheet="工作表1"/>
-    </dataRefs>
-  </dataConsolidate>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>7635310000000</formula>
     </cfRule>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="32006" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
 </worksheet>
 </file>